--- a/Tutorial/template.xlsx
+++ b/Tutorial/template.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5345578_ad_unsw_edu_au/Documents/Research/Publications/Journal articles/1_Natcoms/Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{2BE731DD-9A65-224D-9A01-2B14B479F1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{469A3BF7-8A9B-3442-8604-BF971682ECAB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C319D6E-0F65-064B-8194-E5BF27952E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="15" r:id="rId1"/>
-    <sheet name="energy imbalance" sheetId="5" r:id="rId2"/>
-    <sheet name="CO2 concentration" sheetId="6" r:id="rId3"/>
-    <sheet name="OA" sheetId="7" r:id="rId4"/>
-    <sheet name="AAL" sheetId="8" r:id="rId5"/>
-    <sheet name="freshwater" sheetId="9" r:id="rId6"/>
-    <sheet name="BCF_P" sheetId="10" r:id="rId7"/>
-    <sheet name="BFC_N" sheetId="11" r:id="rId8"/>
-    <sheet name="Ozone depletion" sheetId="12" r:id="rId9"/>
-    <sheet name="Land change" sheetId="13" r:id="rId10"/>
-    <sheet name="biosphere integrity" sheetId="14" r:id="rId11"/>
+    <sheet name="energy imbalance" sheetId="5" r:id="rId1"/>
+    <sheet name="CO2 concentration" sheetId="6" r:id="rId2"/>
+    <sheet name="OA" sheetId="7" r:id="rId3"/>
+    <sheet name="AAL" sheetId="8" r:id="rId4"/>
+    <sheet name="freshwater" sheetId="9" r:id="rId5"/>
+    <sheet name="BCF_P" sheetId="10" r:id="rId6"/>
+    <sheet name="BFC_N" sheetId="11" r:id="rId7"/>
+    <sheet name="Ozone depletion" sheetId="12" r:id="rId8"/>
+    <sheet name="Land change" sheetId="13" r:id="rId9"/>
+    <sheet name="biosphere integrity" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="AAL">AAL!$C$2:$D$42</definedName>
@@ -31,12 +30,11 @@
     <definedName name="BCF_P">BCF_P!$C$2:$D$32</definedName>
     <definedName name="BI">'biosphere integrity'!$C$2:$D$223</definedName>
     <definedName name="CO2c">'CO2 concentration'!$C$2:$D$36</definedName>
+    <definedName name="EI">'energy imbalance'!$C$2:$D$106</definedName>
     <definedName name="FWU">freshwater!$C$2:$D$16</definedName>
     <definedName name="LSC">'Land change'!$C$2:$D$11</definedName>
     <definedName name="OA">OA!$C$2:$D$36</definedName>
     <definedName name="OD">'Ozone depletion'!$C$2:$D$76</definedName>
-    <definedName name="RF">'energy imbalance'!$C$2:$D$106</definedName>
-    <definedName name="testcharacterisation">test!$D$2:$E$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="166">
   <si>
     <t>Acephate</t>
   </si>
@@ -895,1890 +893,1910 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AF05C3-26AE-D14A-936C-F26B0BC63593}">
-  <dimension ref="B2:F105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51F019F-3194-9A46-9C10-3FA0679E5433}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:E106"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C33" si="0">A2&amp;""&amp;B2</f>
+        <v>Carbon dioxide, fossil('air',)</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.5300000000000001E-13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, fossil('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.5300000000000001E-13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, fossil('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.5300000000000001E-13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, fossil('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.5300000000000001E-13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, fossil('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.5300000000000001E-13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
         <v>125</v>
       </c>
-      <c r="D2" t="str">
-        <f>B2&amp;""&amp;C2</f>
-        <v>Carbon dioxide, fossil('air',)</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, from soil or biomass stock('air',)</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.18E-15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, from soil or biomass stock('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.18E-15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, from soil or biomass stock('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.18E-15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, from soil or biomass stock('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.18E-15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, from soil or biomass stock('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.18E-15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, non-fossil('air',)</v>
+      </c>
+      <c r="D12" s="1">
         <v>3.5300000000000001E-13</v>
       </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">B3&amp;""&amp;C3</f>
-        <v>Carbon dioxide, fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, non-fossil('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D13" s="1">
         <v>3.5300000000000001E-13</v>
       </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>126</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D14" s="1">
         <v>3.5300000000000001E-13</v>
       </c>
-      <c r="F4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>123</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, non-fossil('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D15" s="1">
         <v>3.5300000000000001E-13</v>
       </c>
-      <c r="F5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>119</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon dioxide, non-fossil('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D16" s="1">
         <v>3.5300000000000001E-13</v>
       </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>125</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air',)</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, fossil('air',)</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>124</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, fossil('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>126</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, fossil('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>123</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, fossil('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, fossil('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
         <v>125</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air',)</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, non-fossil('air',)</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
         <v>124</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, non-fossil('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
         <v>126</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
         <v>123</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, non-fossil('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
         <v>119</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Carbon monoxide, non-fossil('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.7399999999999999E-13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s">
         <v>125</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air',)</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Dinitrogen monoxide('air',)</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.6400000000000003E-11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
         <v>124</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Dinitrogen monoxide('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.6400000000000003E-11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Dinitrogen monoxide('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.6400000000000003E-11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
         <v>123</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Dinitrogen monoxide('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.6400000000000003E-11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
         <v>119</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Dinitrogen monoxide('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.6400000000000003E-11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air',)</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air',)</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7.6500000000000005E-10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
         <v>124</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7.6500000000000005E-10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
         <v>126</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C65" si="1">A34&amp;""&amp;B34</f>
+        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.6500000000000005E-10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
         <v>123</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7.6500000000000005E-10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.6500000000000005E-10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air',)</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air',)</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.9399999999999999E-9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
         <v>124</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.9399999999999999E-9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
         <v>126</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.9399999999999999E-9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
         <v>123</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.9399999999999999E-9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.9399999999999999E-9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
         <v>125</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air',)</v>
-      </c>
-      <c r="E32" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, chloropentafluoro-, CFC-115('air',)</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7.4300000000000002E-9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
         <v>124</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E33" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, chloropentafluoro-, CFC-115('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7.4300000000000002E-9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
         <v>126</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E34" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, chloropentafluoro-, CFC-115('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7.4300000000000002E-9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
         <v>123</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E35" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, chloropentafluoro-, CFC-115('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7.4300000000000002E-9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
         <v>119</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E36" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane, chloropentafluoro-, CFC-115('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7.4300000000000002E-9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air',)</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air',)</v>
-      </c>
-      <c r="E42" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E43" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E44" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E45" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E46" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air',)</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="F49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air',)</v>
-      </c>
-      <c r="E52" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E53" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E54" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E55" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E56" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air',)</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="F59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air',)</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="F62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="F63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="F64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="F66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D105" si="1">B67&amp;""&amp;C67</f>
-        <v>Methane, fossil('air',)</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, from soil or biomass stock('air',)</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, from soil or biomass stock('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, from soil or biomass stock('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, from soil or biomass stock('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, from soil or biomass stock('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, non-fossil('air',)</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, non-fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E79" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, non-fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E80" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, non-fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="F81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air',)</v>
-      </c>
-      <c r="E82" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E83" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E84" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E85" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E86" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>NMVOC, non-methane volatile organic compounds('air',)</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="F87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>NMVOC, non-methane volatile organic compounds('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="F88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>NMVOC, non-methane volatile organic compounds('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="F89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>NMVOC, non-methane volatile organic compounds('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E90" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="F90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" t="s">
-        <v>119</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>NMVOC, non-methane volatile organic compounds('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" t="s">
-        <v>125</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>Nitrogen fluoride('air',)</v>
-      </c>
-      <c r="E92" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="F92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" t="str">
-        <f t="shared" si="1"/>
-        <v>Nitrogen fluoride('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E93" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>32</v>
-      </c>
-      <c r="C94" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" t="str">
-        <f t="shared" si="1"/>
-        <v>Nitrogen fluoride('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E94" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" t="s">
-        <v>123</v>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" si="1"/>
-        <v>Nitrogen fluoride('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E95" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" si="1"/>
-        <v>Nitrogen fluoride('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E96" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="F96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>Sulfur hexafluoride('air',)</v>
-      </c>
-      <c r="E97" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" t="str">
-        <f t="shared" si="1"/>
-        <v>Sulfur hexafluoride('air', 'low population density, long-term')</v>
-      </c>
-      <c r="E98" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" si="1"/>
-        <v>Sulfur hexafluoride('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="E99" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" t="s">
-        <v>123</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>Sulfur hexafluoride('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="E100" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" t="str">
-        <f t="shared" si="1"/>
-        <v>Sulfur hexafluoride('air', 'urban air close to ground')</v>
-      </c>
-      <c r="E101" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" t="s">
-        <v>125</v>
-      </c>
-      <c r="D102" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="1"/>
         <v>Hydrogen('air',)</v>
       </c>
-      <c r="E102" s="1">
+      <c r="D47" s="1">
         <v>9.0699999999999997E-13</v>
       </c>
-      <c r="F102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>112</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B48" t="s">
         <v>124</v>
       </c>
-      <c r="D103" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="1"/>
         <v>Hydrogen('air', 'low population density, long-term')</v>
       </c>
-      <c r="E103" s="1">
+      <c r="D48" s="1">
         <v>9.0699999999999997E-13</v>
       </c>
-      <c r="F103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+      <c r="E48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>112</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B49" t="s">
         <v>126</v>
       </c>
-      <c r="D104" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="1"/>
         <v>Hydrogen('air', 'lower stratosphere + upper troposphere')</v>
       </c>
-      <c r="E104" s="1">
+      <c r="D49" s="1">
         <v>9.0699999999999997E-13</v>
       </c>
-      <c r="F104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+      <c r="E49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>112</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B50" t="s">
         <v>123</v>
       </c>
-      <c r="D105" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="1"/>
         <v>Hydrogen('air', 'non-urban air or from high stacks')</v>
       </c>
-      <c r="E105" s="1">
+      <c r="D50" s="1">
         <v>9.0699999999999997E-13</v>
       </c>
-      <c r="F105" t="s">
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrogen('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D51" s="1">
+        <v>9.0699999999999997E-13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorodifluoro-, HCFC-22('air',)</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.6300000000000001E-10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorodifluoro-, HCFC-22('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.6300000000000001E-10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorodifluoro-, HCFC-22('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.6300000000000001E-10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorodifluoro-, HCFC-22('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.6300000000000001E-10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorodifluoro-, HCFC-22('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.6300000000000001E-10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorotrifluoro-, CFC-13('air',)</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8.6100000000000007E-9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorotrifluoro-, CFC-13('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D58" s="1">
+        <v>8.6100000000000007E-9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorotrifluoro-, CFC-13('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8.6100000000000007E-9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorotrifluoro-, CFC-13('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D60" s="1">
+        <v>8.6100000000000007E-9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, chlorotrifluoro-, CFC-13('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8.6100000000000007E-9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, dichlorodifluoro-, CFC-12('air',)</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.49E-9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, dichlorodifluoro-, CFC-12('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.49E-9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, dichlorodifluoro-, CFC-12('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.49E-9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>Methane, dichlorodifluoro-, CFC-12('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.49E-9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C97" si="2">A66&amp;""&amp;B66</f>
+        <v>Methane, dichlorodifluoro-, CFC-12('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.49E-9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, dichlorofluoro-, HCFC-21('air',)</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.39E-11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, dichlorofluoro-, HCFC-21('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1.39E-11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, dichlorofluoro-, HCFC-21('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.39E-11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, dichlorofluoro-, HCFC-21('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.39E-11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, dichlorofluoro-, HCFC-21('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.39E-11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, fossil('air',)</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, fossil('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, fossil('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, fossil('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, fossil('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, from soil or biomass stock('air',)</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, from soil or biomass stock('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, from soil or biomass stock('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, from soil or biomass stock('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, from soil or biomass stock('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, non-fossil('air',)</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, non-fossil('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, non-fossil('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, non-fossil('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.5900000000000001E-12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, trichlorofluoro-, CFC-11('air',)</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4.79E-10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, trichlorofluoro-, CFC-11('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4.79E-10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, trichlorofluoro-, CFC-11('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4.79E-10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, trichlorofluoro-, CFC-11('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D90" s="1">
+        <v>4.79E-10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>Methane, trichlorofluoro-, CFC-11('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D91" s="1">
+        <v>4.79E-10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v>NMVOC, non-methane volatile organic compounds('air',)</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1.0599999999999999E-12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v>NMVOC, non-methane volatile organic compounds('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1.0599999999999999E-12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v>NMVOC, non-methane volatile organic compounds('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1.0599999999999999E-12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="2"/>
+        <v>NMVOC, non-methane volatile organic compounds('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1.0599999999999999E-12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="2"/>
+        <v>NMVOC, non-methane volatile organic compounds('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1.0599999999999999E-12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="2"/>
+        <v>Nitrogen fluoride('air',)</v>
+      </c>
+      <c r="D97" s="1">
+        <v>7.9200000000000008E-9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" ref="C98:C106" si="3">A98&amp;""&amp;B98</f>
+        <v>Nitrogen fluoride('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D98" s="1">
+        <v>7.9200000000000008E-9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>Nitrogen fluoride('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D99" s="1">
+        <v>7.9200000000000008E-9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>Nitrogen fluoride('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D100" s="1">
+        <v>7.9200000000000008E-9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>Nitrogen fluoride('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D101" s="1">
+        <v>7.9200000000000008E-9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="3"/>
+        <v>Sulfur hexafluoride('air',)</v>
+      </c>
+      <c r="D102" s="1">
+        <v>6.7099999999999999E-8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="3"/>
+        <v>Sulfur hexafluoride('air', 'low population density, long-term')</v>
+      </c>
+      <c r="D103" s="1">
+        <v>6.7099999999999999E-8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="3"/>
+        <v>Sulfur hexafluoride('air', 'lower stratosphere + upper troposphere')</v>
+      </c>
+      <c r="D104" s="1">
+        <v>6.7099999999999999E-8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="3"/>
+        <v>Sulfur hexafluoride('air', 'non-urban air or from high stacks')</v>
+      </c>
+      <c r="D105" s="1">
+        <v>6.7099999999999999E-8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="3"/>
+        <v>Sulfur hexafluoride('air', 'urban air close to ground')</v>
+      </c>
+      <c r="D106" s="1">
+        <v>6.7099999999999999E-8</v>
+      </c>
+      <c r="E106" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2788,237 +2806,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38498B48-8B42-2246-8476-112C2FBF99CC}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A2:F11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="52.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="str">
-        <f>A2&amp;""&amp;B2</f>
-        <v>Transformation, from forest, extensive('natural resource', 'land')</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.56E-12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" si="0">A3&amp;""&amp;B3</f>
-        <v>Transformation, from forest, intensive('natural resource', 'land')</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.56E-12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformation, from forest, primary (non-use)('natural resource', 'land')</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.56E-12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformation, from forest, secondary (non-use)('natural resource', 'land')</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.56E-12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformation, from forest, unspecified('natural resource', 'land')</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.56E-12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformation, to forest, extensive('natural resource', 'land')</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-1.56E-12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformation, to forest, intensive('natural resource', 'land')</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-1.56E-12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformation, to forest, primary (non-use)('natural resource', 'land')</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-1.56E-12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformation, to forest, secondary (non-use)('natural resource', 'land')</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-1.56E-12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformation, to forest, unspecified('natural resource', 'land')</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-1.56E-12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FC215D-EB0F-314A-906E-C552D3CB5C19}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -3026,7 +2813,7 @@
   <dimension ref="A2:F223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7704,1919 +7491,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51F019F-3194-9A46-9C10-3FA0679E5433}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A2:E106"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C33" si="0">A2&amp;""&amp;B2</f>
-        <v>Carbon dioxide, fossil('air',)</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air',)</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, from soil or biomass stock('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.18E-15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air',)</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon dioxide, non-fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.5300000000000001E-13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air',)</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air',)</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>Carbon monoxide, non-fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2.7399999999999999E-13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air',)</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>Dinitrogen monoxide('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4.6400000000000003E-11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air',)</v>
-      </c>
-      <c r="D32" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C65" si="1">A34&amp;""&amp;B34</f>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D35" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, 1,1,2-trichloro-1,2,2-trifluoro-, CFC-113('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D36" s="1">
-        <v>7.6500000000000005E-10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air',)</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, 1,2-dichloro-1,1,2,2-tetrafluoro-, CFC-114('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1.9399999999999999E-9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air',)</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D43" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D45" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="E45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="1"/>
-        <v>Ethane, chloropentafluoro-, CFC-115('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D46" s="1">
-        <v>7.4300000000000002E-9</v>
-      </c>
-      <c r="E46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="1"/>
-        <v>Hydrogen('air',)</v>
-      </c>
-      <c r="D47" s="1">
-        <v>9.0699999999999997E-13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="1"/>
-        <v>Hydrogen('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D48" s="1">
-        <v>9.0699999999999997E-13</v>
-      </c>
-      <c r="E48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="1"/>
-        <v>Hydrogen('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D49" s="1">
-        <v>9.0699999999999997E-13</v>
-      </c>
-      <c r="E49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="1"/>
-        <v>Hydrogen('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D50" s="1">
-        <v>9.0699999999999997E-13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="1"/>
-        <v>Hydrogen('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D51" s="1">
-        <v>9.0699999999999997E-13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air',)</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="E52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="E53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="E55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorodifluoro-, HCFC-22('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1.6300000000000001E-10</v>
-      </c>
-      <c r="E56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air',)</v>
-      </c>
-      <c r="D57" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D58" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D59" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D60" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, chlorotrifluoro-, CFC-13('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D61" s="1">
-        <v>8.6100000000000007E-9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air',)</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="E62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="E64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="1"/>
-        <v>Methane, dichlorodifluoro-, CFC-12('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="E65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" ref="C66:C97" si="2">A66&amp;""&amp;B66</f>
-        <v>Methane, dichlorodifluoro-, CFC-12('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1.49E-9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air',)</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="E67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, dichlorofluoro-, HCFC-21('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1.39E-11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, fossil('air',)</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E73" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E76" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, from soil or biomass stock('air',)</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" t="s">
-        <v>124</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, from soil or biomass stock('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, from soil or biomass stock('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D79" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, from soil or biomass stock('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D80" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, from soil or biomass stock('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, non-fossil('air',)</v>
-      </c>
-      <c r="D82" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, non-fossil('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D83" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E83" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, non-fossil('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D84" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, non-fossil('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D85" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, non-fossil('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1.5900000000000001E-12</v>
-      </c>
-      <c r="E86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air',)</v>
-      </c>
-      <c r="D87" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="E87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D88" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="E88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D89" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="E89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D90" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="E90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="2"/>
-        <v>Methane, trichlorofluoro-, CFC-11('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D91" s="1">
-        <v>4.79E-10</v>
-      </c>
-      <c r="E91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" t="s">
-        <v>125</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="2"/>
-        <v>NMVOC, non-methane volatile organic compounds('air',)</v>
-      </c>
-      <c r="D92" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="E92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" t="s">
-        <v>124</v>
-      </c>
-      <c r="C93" t="str">
-        <f t="shared" si="2"/>
-        <v>NMVOC, non-methane volatile organic compounds('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="E93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C94" t="str">
-        <f t="shared" si="2"/>
-        <v>NMVOC, non-methane volatile organic compounds('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D94" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="E94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" si="2"/>
-        <v>NMVOC, non-methane volatile organic compounds('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="E95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C96" t="str">
-        <f t="shared" si="2"/>
-        <v>NMVOC, non-methane volatile organic compounds('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1.0599999999999999E-12</v>
-      </c>
-      <c r="E96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" si="2"/>
-        <v>Nitrogen fluoride('air',)</v>
-      </c>
-      <c r="D97" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="E97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>32</v>
-      </c>
-      <c r="B98" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" t="str">
-        <f t="shared" ref="C98:C106" si="3">A98&amp;""&amp;B98</f>
-        <v>Nitrogen fluoride('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D98" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="E98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" si="3"/>
-        <v>Nitrogen fluoride('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D99" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="E99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" t="s">
-        <v>123</v>
-      </c>
-      <c r="C100" t="str">
-        <f t="shared" si="3"/>
-        <v>Nitrogen fluoride('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D100" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="E100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" t="str">
-        <f t="shared" si="3"/>
-        <v>Nitrogen fluoride('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D101" s="1">
-        <v>7.9200000000000008E-9</v>
-      </c>
-      <c r="E101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C102" t="str">
-        <f t="shared" si="3"/>
-        <v>Sulfur hexafluoride('air',)</v>
-      </c>
-      <c r="D102" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="E102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>73</v>
-      </c>
-      <c r="B103" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" t="str">
-        <f t="shared" si="3"/>
-        <v>Sulfur hexafluoride('air', 'low population density, long-term')</v>
-      </c>
-      <c r="D103" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="E103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" t="str">
-        <f t="shared" si="3"/>
-        <v>Sulfur hexafluoride('air', 'lower stratosphere + upper troposphere')</v>
-      </c>
-      <c r="D104" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="E104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>73</v>
-      </c>
-      <c r="B105" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" t="str">
-        <f t="shared" si="3"/>
-        <v>Sulfur hexafluoride('air', 'non-urban air or from high stacks')</v>
-      </c>
-      <c r="D105" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="E105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>73</v>
-      </c>
-      <c r="B106" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" t="str">
-        <f t="shared" si="3"/>
-        <v>Sulfur hexafluoride('air', 'urban air close to ground')</v>
-      </c>
-      <c r="D106" s="1">
-        <v>6.7099999999999999E-8</v>
-      </c>
-      <c r="E106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FC2320-5457-7342-A96A-884A06AACDCD}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -9624,7 +7498,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10369,7 +8243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603805E9-7074-FF4A-8F47-2C0BA1C6B65B}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -10377,7 +8251,7 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11126,7 +9000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE9DCA7-816A-4048-A308-8FAB291E85B0}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -11134,7 +9008,7 @@
   <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12008,7 +9882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9565AEA6-7EA5-8249-B329-A2D3CF0D4216}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -12016,7 +9890,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12341,7 +10215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36434B4F-A474-D74B-8878-597C979BAA77}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -12349,7 +10223,7 @@
   <dimension ref="A2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13013,7 +10887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31508205-901C-F841-8671-811BA42B934D}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -13021,7 +10895,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13539,7 +11413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D28754-0852-744F-9862-840BCA5E1936}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -13547,7 +11421,7 @@
   <dimension ref="A2:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15133,4 +13007,235 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38498B48-8B42-2246-8476-112C2FBF99CC}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="52.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;""&amp;B2</f>
+        <v>Transformation, from forest, extensive('natural resource', 'land')</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.56E-12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C11" si="0">A3&amp;""&amp;B3</f>
+        <v>Transformation, from forest, intensive('natural resource', 'land')</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.56E-12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformation, from forest, primary (non-use)('natural resource', 'land')</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.56E-12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformation, from forest, secondary (non-use)('natural resource', 'land')</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.56E-12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformation, from forest, unspecified('natural resource', 'land')</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.56E-12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformation, to forest, extensive('natural resource', 'land')</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1.56E-12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformation, to forest, intensive('natural resource', 'land')</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1.56E-12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformation, to forest, primary (non-use)('natural resource', 'land')</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.56E-12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformation, to forest, secondary (non-use)('natural resource', 'land')</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1.56E-12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformation, to forest, unspecified('natural resource', 'land')</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.56E-12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>